--- a/biology/Médecine/Comité_consultatif_de_protection_des_personnes_dans_la_recherche_biomédicale/Comité_consultatif_de_protection_des_personnes_dans_la_recherche_biomédicale.xlsx
+++ b/biology/Médecine/Comité_consultatif_de_protection_des_personnes_dans_la_recherche_biomédicale/Comité_consultatif_de_protection_des_personnes_dans_la_recherche_biomédicale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Comit%C3%A9_consultatif_de_protection_des_personnes_dans_la_recherche_biom%C3%A9dicale</t>
+          <t>Comité_consultatif_de_protection_des_personnes_dans_la_recherche_biomédicale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, les Comité consultatif de protection des personnes dans la recherche biomédicale (CCPPRB) étaient des instances créées au début des années 1990 lors de la mise en application de la loi dite Huriet-Sérusclat. Ils étaient chargées de donner un avis, favorable ou défavorable, avant la mise en œuvre de tout projet de recherche biomédicale chez l'homme. Dans les textes, cet avis, seulement consultatif, pouvait être ou non suivi par Le Ministre de la Santé. En pratique, les contrats d'assurance pris pour couvrir les risques de la recherche (obligation légale) incluant le plus souvent une clause de nullité en cas d'avis défavorable du CCPPRB, sauf exception, seules les études ayant reçu un avis favorable ont réellement eu lieu. 
 Leur avis était fondé sur divers critères, les plus importants étant de vérifier que le projet obéissait aux règles de l'éthique, que la sécurité des personnes participant à l'étude était assurée au mieux et enfin et surtout que ces participants (patients ou sujets sains) y avaient formellement consenti après avoir reçu une information détaillée, compréhensible et honnête (« consentement libre et éclairé »).
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Comit%C3%A9_consultatif_de_protection_des_personnes_dans_la_recherche_biom%C3%A9dicale</t>
+          <t>Comité_consultatif_de_protection_des_personnes_dans_la_recherche_biomédicale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Équivalents dans les autres pays</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Belgique : Comités d'éthique hospitaliers, institués par arrêté Royal en 1994
  États-Unis : Institutional Review Board
